--- a/utilities/segmentation_results.xlsx
+++ b/utilities/segmentation_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Brain" sheetId="1" r:id="rId1"/>
@@ -16,52 +16,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>sample_id</t>
   </si>
   <si>
-    <t>label 1</t>
-  </si>
-  <si>
-    <t>label 2</t>
-  </si>
-  <si>
-    <t>label 3</t>
-  </si>
-  <si>
-    <t>label 4</t>
-  </si>
-  <si>
-    <t>label 5</t>
-  </si>
-  <si>
-    <t>label 6</t>
-  </si>
-  <si>
-    <t>label 7</t>
-  </si>
-  <si>
-    <t>label 8</t>
-  </si>
-  <si>
-    <t>label 9</t>
-  </si>
-  <si>
-    <t>label 0</t>
+    <t>Organ name</t>
+  </si>
+  <si>
+    <t>Avg. human IoU</t>
+  </si>
+  <si>
+    <t>Avg. NN IoU</t>
+  </si>
+  <si>
+    <t>optical nerves</t>
+  </si>
+  <si>
+    <t>optical tectum</t>
+  </si>
+  <si>
+    <t>forebrain</t>
+  </si>
+  <si>
+    <t>midbrain</t>
+  </si>
+  <si>
+    <t>hindbrain</t>
+  </si>
+  <si>
+    <t>cerebellum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epyphysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypophysis </t>
+  </si>
+  <si>
+    <t>torus longuthing</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>Aorta</t>
+  </si>
+  <si>
+    <t>Atrium</t>
+  </si>
+  <si>
+    <t>Bulbus arteriosus</t>
+  </si>
+  <si>
+    <t>Left head kidney and kidney</t>
+  </si>
+  <si>
+    <t>ventricle</t>
+  </si>
+  <si>
+    <t>right head kidney and kidney</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Courier"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,10 +117,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -390,54 +429,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>508</v>
       </c>
@@ -471,8 +523,20 @@
       <c r="K2" s="1">
         <v>48.312987450000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="str">
+        <f>B1</f>
+        <v>background</v>
+      </c>
+      <c r="O2" s="1">
+        <f>AVERAGE(B20:B24)</f>
+        <v>99.951758940000005</v>
+      </c>
+      <c r="P2" s="2">
+        <f>AVERAGE(B2:B18)</f>
+        <v>99.977272151764694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>509</v>
       </c>
@@ -506,8 +570,20 @@
       <c r="K3" s="1">
         <v>81.655290100000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="str">
+        <f>C1</f>
+        <v>optical nerves</v>
+      </c>
+      <c r="O3" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>64.125380522</v>
+      </c>
+      <c r="P3" s="2">
+        <f>AVERAGE(C2:C18)</f>
+        <v>75.745052213529405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>511</v>
       </c>
@@ -541,8 +617,20 @@
       <c r="K4" s="1">
         <v>78.50385679</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="str">
+        <f>D1</f>
+        <v>optical tectum</v>
+      </c>
+      <c r="O4" s="1">
+        <f>AVERAGE(D20:D24)</f>
+        <v>87.958570035999998</v>
+      </c>
+      <c r="P4" s="2">
+        <f>AVERAGE(D2:D18)</f>
+        <v>92.327181342941174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>513</v>
       </c>
@@ -576,8 +664,20 @@
       <c r="K5" s="1">
         <v>74.846625770000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5" s="1" t="str">
+        <f>E1</f>
+        <v>forebrain</v>
+      </c>
+      <c r="O5" s="1">
+        <f>AVERAGE(E20:E24)</f>
+        <v>89.335492761999987</v>
+      </c>
+      <c r="P5" s="2">
+        <f>AVERAGE(E2:E18)</f>
+        <v>93.606458501176462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>516</v>
       </c>
@@ -611,8 +711,20 @@
       <c r="K6" s="1">
         <v>76.123207649999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="str">
+        <f>F1</f>
+        <v>midbrain</v>
+      </c>
+      <c r="O6" s="1">
+        <f>AVERAGE(F20:F24)</f>
+        <v>84.470381415999995</v>
+      </c>
+      <c r="P6" s="2">
+        <f>AVERAGE(F2:F18)</f>
+        <v>91.408525398235298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>671</v>
       </c>
@@ -646,8 +758,20 @@
       <c r="K7" s="1">
         <v>80.838874680000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="str">
+        <f>G1</f>
+        <v>hindbrain</v>
+      </c>
+      <c r="O7" s="1">
+        <f>AVERAGE(G20:G24)</f>
+        <v>74.331291301999997</v>
+      </c>
+      <c r="P7" s="2">
+        <f>AVERAGE(G2:G18)</f>
+        <v>88.501773875882364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>672</v>
       </c>
@@ -681,8 +805,20 @@
       <c r="K8" s="1">
         <v>51.4680252</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="str">
+        <f>H1</f>
+        <v>cerebellum</v>
+      </c>
+      <c r="O8" s="1">
+        <f>AVERAGE(H20:H24)</f>
+        <v>87.261852379999993</v>
+      </c>
+      <c r="P8" s="2">
+        <f>AVERAGE(H2:H18)</f>
+        <v>91.208752080588226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>673</v>
       </c>
@@ -716,8 +852,20 @@
       <c r="K9" s="1">
         <v>75.491225439999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="str">
+        <f>I1</f>
+        <v xml:space="preserve">epyphysis </v>
+      </c>
+      <c r="O9" s="1">
+        <f>AVERAGE(I20:I24)</f>
+        <v>77.512211825999998</v>
+      </c>
+      <c r="P9" s="2">
+        <f>AVERAGE(I2:I18)</f>
+        <v>73.115094852941169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>674</v>
       </c>
@@ -751,8 +899,20 @@
       <c r="K10" s="1">
         <v>74.333539990000006</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="str">
+        <f>J1</f>
+        <v xml:space="preserve">hypophysis </v>
+      </c>
+      <c r="O10" s="1">
+        <f>AVERAGE(J20:J24)</f>
+        <v>60.741573569999993</v>
+      </c>
+      <c r="P10" s="2">
+        <f>AVERAGE(J2:J18)</f>
+        <v>68.706687691764699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>675</v>
       </c>
@@ -786,8 +946,20 @@
       <c r="K11" s="1">
         <v>75.418193400000007</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="str">
+        <f>K1</f>
+        <v>torus longuthing</v>
+      </c>
+      <c r="O11" s="1">
+        <f>AVERAGE(K20:K24)</f>
+        <v>52.980466999999997</v>
+      </c>
+      <c r="P11" s="2">
+        <f>AVERAGE(K2:K18)</f>
+        <v>70.897011437058822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>677</v>
       </c>
@@ -822,7 +994,7 @@
         <v>74.047291090000002</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>679</v>
       </c>
@@ -857,7 +1029,7 @@
         <v>60.74884574</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>803</v>
       </c>
@@ -892,7 +1064,7 @@
         <v>77.042292970000005</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>833</v>
       </c>
@@ -927,7 +1099,7 @@
         <v>81.599798770000007</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>834</v>
       </c>
@@ -1209,357 +1381,457 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="26.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>508</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>99.987719350000006</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>47.880849499999997</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>74.723888470000006</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>68.621684909999999</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>81.978701650000005</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>89.709619110000006</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>81.422263920000006</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="K2" s="1" t="str">
+        <f>B1</f>
+        <v>background</v>
+      </c>
+      <c r="L2" s="1">
+        <f>AVERAGE(B11:B14)</f>
+        <v>99.988893797499998</v>
+      </c>
+      <c r="M2" s="1">
+        <f>AVERAGE(B2:B9)</f>
+        <v>99.988445923750007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>516</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>99.991563920000004</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>69.375772560000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>88.648436419999996</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>83.464300800000004</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>83.17538734</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>94.402279640000003</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>88.487741760000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="K3" s="1" t="str">
+        <f>C1</f>
+        <v>Aorta</v>
+      </c>
+      <c r="L3" s="1">
+        <f>AVERAGE(C11:C14)</f>
+        <v>71.815386744999998</v>
+      </c>
+      <c r="M3" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>66.506522226249999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>513</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>99.985931350000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>64.073353710000006</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>87.384347829999996</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>84.202070689999999</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>87.780729899999997</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>90.962532670000002</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>86.412354500000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="K4" s="1" t="str">
+        <f>D1</f>
+        <v>Atrium</v>
+      </c>
+      <c r="L4" s="1">
+        <f>AVERAGE(D11:D14)</f>
+        <v>91.002302757500004</v>
+      </c>
+      <c r="M4" s="1">
+        <f>AVERAGE(D2:D9)</f>
+        <v>89.523324589999987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>673</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>99.991764219999993</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>55.445544550000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>92.492830909999995</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>80.548153790000001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>88.106488319999997</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>94.190470629999993</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>87.13496696</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="K5" s="1" t="str">
+        <f>E1</f>
+        <v>Bulbus arteriosus</v>
+      </c>
+      <c r="L5" s="1">
+        <f>AVERAGE(E11:E14)</f>
+        <v>87.923516057500009</v>
+      </c>
+      <c r="M5" s="1">
+        <f>AVERAGE(E2:E9)</f>
+        <v>84.377557623749993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>675</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>99.988355240000004</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>72.017984659999996</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>92.567344770000005</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>86.926605499999994</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>91.46867057</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>96.135353219999999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>87.885876069999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="K6" s="1" t="str">
+        <f>F1</f>
+        <v>Left head kidney and kidney</v>
+      </c>
+      <c r="L6" s="1">
+        <f>AVERAGE(F11:F14)</f>
+        <v>86.352805294999996</v>
+      </c>
+      <c r="M6" s="1">
+        <f>AVERAGE(F2:F9)</f>
+        <v>88.135558786250002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>677</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>99.992183690000005</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>72.652813589999994</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>91.720186780000006</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>90.460004530000006</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>90.922629099999995</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>95.054759660000002</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>92.431018589999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="K7" s="1" t="str">
+        <f>G1</f>
+        <v>ventricle</v>
+      </c>
+      <c r="L7" s="1">
+        <f>AVERAGE(G11:G14)</f>
+        <v>95.095947312500002</v>
+      </c>
+      <c r="M7" s="1">
+        <f>AVERAGE(G2:G9)</f>
+        <v>94.139060297500009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>833</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>99.989498859999998</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>76.901768590000003</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>95.907926709999998</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>90.078120060000003</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>95.416987210000002</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>96.916053399999996</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>95.215789839999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="K8" s="1" t="str">
+        <f>H1</f>
+        <v>right head kidney and kidney</v>
+      </c>
+      <c r="L8" s="1">
+        <f>AVERAGE(H11:H14)</f>
+        <v>88.121469849999997</v>
+      </c>
+      <c r="M8" s="1">
+        <f>AVERAGE(H2:H9)</f>
+        <v>88.381123099999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>803</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>99.98055076</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>73.704090649999998</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>92.741634829999995</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>90.719520709999998</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>86.234876200000002</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>95.741414050000003</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>88.058973159999994</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>516</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>99.988863480000006</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>73.221476510000002</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>85.499196690000005</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>86.919936680000006</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>77.607675040000004</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>93.135331769999993</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>84.806458289999995</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>673</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>99.993349879999997</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>61.898235390000004</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>93.884550390000001</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>81.507792679999994</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>91.531550390000007</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>96.034055890000005</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>87.645356320000005</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>677</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>99.99171595</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>72.552091489999995</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>90.972664600000002</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>89.988832450000004</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>90.551442690000002</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>94.849839560000007</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>91.546472010000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>803</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>99.981645880000002</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>79.589743589999998</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>93.652799349999995</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>93.277502420000005</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>85.72055306</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>96.364562030000002</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>88.48759278</v>
       </c>
     </row>
